--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="608">
   <si>
     <t>ID</t>
   </si>
@@ -947,7 +947,7 @@
     <t>11. Новость не сохранена, высвечивается окошко с предупреждением "Заполните пустые поля" и в окне "Категория" появляется предупреждающий восклицательный знак</t>
   </si>
   <si>
-    <t>Создание новости с незаполненным заколовком в разделе "Новости"</t>
+    <t>Создание новости с незаполненным заголовком в разделе "Новости"</t>
   </si>
   <si>
     <t>11. Новость не сохранена, высвечивается окошко с предупреждением "Заполните пустые поля" и в окне "Заголовок" появляется предупреждающий восклицательный знак</t>
@@ -972,6 +972,9 @@
   </si>
   <si>
     <t>Создание новости с заполненными полями валидными значениями в разделе "Новости"</t>
+  </si>
+  <si>
+    <t>8. Ввести в поле "Заголовок" надпись "Новость"</t>
   </si>
   <si>
     <t>10. В поле "Время публикации" установить текущее время</t>
@@ -1826,6 +1829,15 @@
   </si>
   <si>
     <t>14. Произошел переход в раздел "Новости", сохраненная новость не отображается</t>
+  </si>
+  <si>
+    <t>Создание новости с незаполненными полями в разделе "Новости"</t>
+  </si>
+  <si>
+    <t>7. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>7. Новость не сохранена, высвечивается окошко с предупреждением "Заполните пустые поля" и напротив незаполненных полей появляется предупреждающий восклицательный знак</t>
   </si>
 </sst>
 </file>
@@ -9785,7 +9797,7 @@
       <c r="D536" s="16"/>
       <c r="E536" s="16"/>
       <c r="F536" s="14" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G536" s="14" t="s">
         <v>315</v>
@@ -9811,7 +9823,7 @@
       <c r="D538" s="16"/>
       <c r="E538" s="16"/>
       <c r="F538" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G538" s="14" t="s">
         <v>151</v>
@@ -9840,7 +9852,7 @@
         <v>154</v>
       </c>
       <c r="G540" s="14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="541">
@@ -9848,7 +9860,7 @@
         <v>66.0</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C541" s="10"/>
       <c r="D541" s="11" t="s">
@@ -9936,10 +9948,10 @@
       <c r="D547" s="16"/>
       <c r="E547" s="16"/>
       <c r="F547" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G547" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="548">
@@ -9949,10 +9961,10 @@
       <c r="D548" s="18"/>
       <c r="E548" s="18"/>
       <c r="F548" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G548" s="14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="549">
@@ -9960,7 +9972,7 @@
         <v>67.0</v>
       </c>
       <c r="B549" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C549" s="10"/>
       <c r="D549" s="11" t="s">
@@ -10048,10 +10060,10 @@
       <c r="D555" s="16"/>
       <c r="E555" s="16"/>
       <c r="F555" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G555" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="556">
@@ -10061,10 +10073,10 @@
       <c r="D556" s="16"/>
       <c r="E556" s="16"/>
       <c r="F556" s="14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G556" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="557">
@@ -10074,10 +10086,10 @@
       <c r="D557" s="16"/>
       <c r="E557" s="16"/>
       <c r="F557" s="14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G557" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="558">
@@ -10087,10 +10099,10 @@
       <c r="D558" s="16"/>
       <c r="E558" s="16"/>
       <c r="F558" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G558" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H558" s="24"/>
     </row>
@@ -10101,10 +10113,10 @@
       <c r="D559" s="16"/>
       <c r="E559" s="16"/>
       <c r="F559" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G559" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H559" s="24"/>
     </row>
@@ -10115,10 +10127,10 @@
       <c r="D560" s="18"/>
       <c r="E560" s="18"/>
       <c r="F560" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G560" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="561">
@@ -10126,7 +10138,7 @@
         <v>68.0</v>
       </c>
       <c r="B561" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C561" s="10"/>
       <c r="D561" s="11" t="s">
@@ -10214,10 +10226,10 @@
       <c r="D567" s="16"/>
       <c r="E567" s="16"/>
       <c r="F567" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G567" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="568">
@@ -10227,10 +10239,10 @@
       <c r="D568" s="16"/>
       <c r="E568" s="16"/>
       <c r="F568" s="14" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G568" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="569">
@@ -10240,10 +10252,10 @@
       <c r="D569" s="16"/>
       <c r="E569" s="16"/>
       <c r="F569" s="25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G569" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="570">
@@ -10253,10 +10265,10 @@
       <c r="D570" s="16"/>
       <c r="E570" s="16"/>
       <c r="F570" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G570" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="571">
@@ -10266,10 +10278,10 @@
       <c r="D571" s="16"/>
       <c r="E571" s="16"/>
       <c r="F571" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G571" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="572">
@@ -10279,10 +10291,10 @@
       <c r="D572" s="18"/>
       <c r="E572" s="18"/>
       <c r="F572" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G572" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="573">
@@ -10290,7 +10302,7 @@
         <v>69.0</v>
       </c>
       <c r="B573" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C573" s="10"/>
       <c r="D573" s="11" t="s">
@@ -10378,13 +10390,13 @@
       <c r="D579" s="16"/>
       <c r="E579" s="16"/>
       <c r="F579" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G579" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H579" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="580">
@@ -10394,13 +10406,13 @@
       <c r="D580" s="16"/>
       <c r="E580" s="16"/>
       <c r="F580" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="G580" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H580" s="24" t="s">
         <v>351</v>
-      </c>
-      <c r="G580" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="H580" s="24" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="581">
@@ -10410,10 +10422,10 @@
       <c r="D581" s="16"/>
       <c r="E581" s="16"/>
       <c r="F581" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G581" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="582">
@@ -10423,10 +10435,10 @@
       <c r="D582" s="16"/>
       <c r="E582" s="16"/>
       <c r="F582" s="25" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G582" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="583">
@@ -10436,10 +10448,10 @@
       <c r="D583" s="16"/>
       <c r="E583" s="16"/>
       <c r="F583" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G583" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="584">
@@ -10449,10 +10461,10 @@
       <c r="D584" s="16"/>
       <c r="E584" s="16"/>
       <c r="F584" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G584" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="585">
@@ -10462,10 +10474,10 @@
       <c r="D585" s="18"/>
       <c r="E585" s="18"/>
       <c r="F585" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G585" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="586">
@@ -10473,7 +10485,7 @@
         <v>70.0</v>
       </c>
       <c r="B586" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C586" s="10"/>
       <c r="D586" s="11" t="s">
@@ -10561,10 +10573,10 @@
       <c r="D592" s="16"/>
       <c r="E592" s="16"/>
       <c r="F592" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G592" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="593">
@@ -10574,10 +10586,10 @@
       <c r="D593" s="16"/>
       <c r="E593" s="16"/>
       <c r="F593" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G593" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="594">
@@ -10587,10 +10599,10 @@
       <c r="D594" s="16"/>
       <c r="E594" s="16"/>
       <c r="F594" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G594" s="14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="595">
@@ -10600,10 +10612,10 @@
       <c r="D595" s="16"/>
       <c r="E595" s="16"/>
       <c r="F595" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G595" s="14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="596">
@@ -10613,10 +10625,10 @@
       <c r="D596" s="16"/>
       <c r="E596" s="16"/>
       <c r="F596" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G596" s="14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="597">
@@ -10626,10 +10638,10 @@
       <c r="D597" s="18"/>
       <c r="E597" s="18"/>
       <c r="F597" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G597" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="598">
@@ -10637,7 +10649,7 @@
         <v>71.0</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C598" s="10"/>
       <c r="D598" s="11" t="s">
@@ -10725,10 +10737,10 @@
       <c r="D604" s="16"/>
       <c r="E604" s="16"/>
       <c r="F604" s="14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G604" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="605">
@@ -10738,10 +10750,10 @@
       <c r="D605" s="16"/>
       <c r="E605" s="16"/>
       <c r="F605" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G605" s="14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="606">
@@ -10751,10 +10763,10 @@
       <c r="D606" s="16"/>
       <c r="E606" s="16"/>
       <c r="F606" s="25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G606" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="607">
@@ -10764,10 +10776,10 @@
       <c r="D607" s="16"/>
       <c r="E607" s="16"/>
       <c r="F607" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G607" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="608">
@@ -10777,10 +10789,10 @@
       <c r="D608" s="16"/>
       <c r="E608" s="16"/>
       <c r="F608" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G608" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="609">
@@ -10790,10 +10802,10 @@
       <c r="D609" s="18"/>
       <c r="E609" s="18"/>
       <c r="F609" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G609" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="610">
@@ -10801,7 +10813,7 @@
         <v>72.0</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C610" s="10"/>
       <c r="D610" s="11" t="s">
@@ -10889,10 +10901,10 @@
       <c r="D616" s="16"/>
       <c r="E616" s="16"/>
       <c r="F616" s="14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G616" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="617">
@@ -10902,10 +10914,10 @@
       <c r="D617" s="16"/>
       <c r="E617" s="16"/>
       <c r="F617" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G617" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="618">
@@ -10915,10 +10927,10 @@
       <c r="D618" s="16"/>
       <c r="E618" s="16"/>
       <c r="F618" s="14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G618" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="619">
@@ -10928,10 +10940,10 @@
       <c r="D619" s="16"/>
       <c r="E619" s="16"/>
       <c r="F619" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G619" s="14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="620">
@@ -10941,10 +10953,10 @@
       <c r="D620" s="16"/>
       <c r="E620" s="16"/>
       <c r="F620" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G620" s="14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="621">
@@ -10954,10 +10966,10 @@
       <c r="D621" s="16"/>
       <c r="E621" s="16"/>
       <c r="F621" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G621" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="622">
@@ -10967,10 +10979,10 @@
       <c r="D622" s="18"/>
       <c r="E622" s="18"/>
       <c r="F622" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G622" s="14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="623">
@@ -10978,7 +10990,7 @@
         <v>73.0</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C623" s="10"/>
       <c r="D623" s="11" t="s">
@@ -11066,10 +11078,10 @@
       <c r="D629" s="18"/>
       <c r="E629" s="18"/>
       <c r="F629" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G629" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="630">
@@ -11077,7 +11089,7 @@
         <v>74.0</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C630" s="10"/>
       <c r="D630" s="11" t="s">
@@ -11165,10 +11177,10 @@
       <c r="D636" s="16"/>
       <c r="E636" s="16"/>
       <c r="F636" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G636" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="637">
@@ -11178,10 +11190,10 @@
       <c r="D637" s="18"/>
       <c r="E637" s="18"/>
       <c r="F637" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G637" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="638">
@@ -11189,7 +11201,7 @@
         <v>75.0</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C638" s="10"/>
       <c r="D638" s="11" t="s">
@@ -11277,10 +11289,10 @@
       <c r="D644" s="16"/>
       <c r="E644" s="16"/>
       <c r="F644" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G644" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="645">
@@ -11290,10 +11302,10 @@
       <c r="D645" s="18"/>
       <c r="E645" s="18"/>
       <c r="F645" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G645" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="646">
@@ -11301,7 +11313,7 @@
         <v>76.0</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C646" s="10"/>
       <c r="D646" s="11" t="s">
@@ -11389,10 +11401,10 @@
       <c r="D652" s="16"/>
       <c r="E652" s="16"/>
       <c r="F652" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G652" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="653">
@@ -11402,10 +11414,10 @@
       <c r="D653" s="18"/>
       <c r="E653" s="18"/>
       <c r="F653" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G653" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="654">
@@ -11413,7 +11425,7 @@
         <v>77.0</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C654" s="10"/>
       <c r="D654" s="11" t="s">
@@ -11501,10 +11513,10 @@
       <c r="D660" s="18"/>
       <c r="E660" s="18"/>
       <c r="F660" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G660" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="661">
@@ -11512,7 +11524,7 @@
         <v>78.0</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C661" s="10"/>
       <c r="D661" s="11" t="s">
@@ -11600,10 +11612,10 @@
       <c r="D667" s="18"/>
       <c r="E667" s="18"/>
       <c r="F667" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G667" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="668">
@@ -11611,7 +11623,7 @@
         <v>79.0</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C668" s="10"/>
       <c r="D668" s="11" t="s">
@@ -11738,7 +11750,7 @@
       <c r="D677" s="16"/>
       <c r="E677" s="16"/>
       <c r="F677" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G677" s="14" t="s">
         <v>151</v>
@@ -11767,7 +11779,7 @@
         <v>154</v>
       </c>
       <c r="G679" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="680">
@@ -11775,7 +11787,7 @@
         <v>80.0</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C680" s="10"/>
       <c r="D680" s="11" t="s">
@@ -11902,7 +11914,7 @@
       <c r="D689" s="16"/>
       <c r="E689" s="16"/>
       <c r="F689" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G689" s="14" t="s">
         <v>151</v>
@@ -11931,7 +11943,7 @@
         <v>154</v>
       </c>
       <c r="G691" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="692">
@@ -11941,10 +11953,10 @@
       <c r="D692" s="16"/>
       <c r="E692" s="16"/>
       <c r="F692" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G692" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="693">
@@ -11954,10 +11966,10 @@
       <c r="D693" s="18"/>
       <c r="E693" s="18"/>
       <c r="F693" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G693" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="694">
@@ -11965,7 +11977,7 @@
         <v>81.0</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C694" s="10"/>
       <c r="D694" s="11" t="s">
@@ -12092,7 +12104,7 @@
       <c r="D703" s="16"/>
       <c r="E703" s="16"/>
       <c r="F703" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G703" s="14" t="s">
         <v>151</v>
@@ -12121,7 +12133,7 @@
         <v>154</v>
       </c>
       <c r="G705" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="706">
@@ -12131,10 +12143,10 @@
       <c r="D706" s="16"/>
       <c r="E706" s="16"/>
       <c r="F706" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G706" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="707">
@@ -12144,10 +12156,10 @@
       <c r="D707" s="18"/>
       <c r="E707" s="18"/>
       <c r="F707" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G707" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="708">
@@ -12155,7 +12167,7 @@
         <v>82.0</v>
       </c>
       <c r="B708" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C708" s="10"/>
       <c r="D708" s="11" t="s">
@@ -12282,7 +12294,7 @@
       <c r="D717" s="16"/>
       <c r="E717" s="16"/>
       <c r="F717" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G717" s="14" t="s">
         <v>151</v>
@@ -12311,7 +12323,7 @@
         <v>154</v>
       </c>
       <c r="G719" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="720">
@@ -12319,7 +12331,7 @@
         <v>83.0</v>
       </c>
       <c r="B720" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C720" s="10"/>
       <c r="D720" s="11" t="s">
@@ -12446,7 +12458,7 @@
       <c r="D729" s="16"/>
       <c r="E729" s="16"/>
       <c r="F729" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G729" s="14" t="s">
         <v>151</v>
@@ -12475,7 +12487,7 @@
         <v>154</v>
       </c>
       <c r="G731" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="732">
@@ -12485,10 +12497,10 @@
       <c r="D732" s="16"/>
       <c r="E732" s="16"/>
       <c r="F732" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G732" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="733">
@@ -12498,10 +12510,10 @@
       <c r="D733" s="18"/>
       <c r="E733" s="18"/>
       <c r="F733" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G733" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="734">
@@ -12509,7 +12521,7 @@
         <v>84.0</v>
       </c>
       <c r="B734" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C734" s="10"/>
       <c r="D734" s="11" t="s">
@@ -12636,7 +12648,7 @@
       <c r="D743" s="16"/>
       <c r="E743" s="16"/>
       <c r="F743" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G743" s="14" t="s">
         <v>151</v>
@@ -12665,7 +12677,7 @@
         <v>154</v>
       </c>
       <c r="G745" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="746">
@@ -12675,10 +12687,10 @@
       <c r="D746" s="16"/>
       <c r="E746" s="16"/>
       <c r="F746" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G746" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="747">
@@ -12688,10 +12700,10 @@
       <c r="D747" s="18"/>
       <c r="E747" s="18"/>
       <c r="F747" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G747" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="748">
@@ -12699,7 +12711,7 @@
         <v>85.0</v>
       </c>
       <c r="B748" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C748" s="10"/>
       <c r="D748" s="11" t="s">
@@ -12826,7 +12838,7 @@
       <c r="D757" s="16"/>
       <c r="E757" s="16"/>
       <c r="F757" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G757" s="14" t="s">
         <v>151</v>
@@ -12855,7 +12867,7 @@
         <v>154</v>
       </c>
       <c r="G759" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="760">
@@ -12865,10 +12877,10 @@
       <c r="D760" s="16"/>
       <c r="E760" s="16"/>
       <c r="F760" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G760" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="761">
@@ -12878,10 +12890,10 @@
       <c r="D761" s="16"/>
       <c r="E761" s="16"/>
       <c r="F761" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G761" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="762">
@@ -12891,10 +12903,10 @@
       <c r="D762" s="18"/>
       <c r="E762" s="18"/>
       <c r="F762" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G762" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="763">
@@ -12902,7 +12914,7 @@
         <v>86.0</v>
       </c>
       <c r="B763" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C763" s="10"/>
       <c r="D763" s="11" t="s">
@@ -13029,7 +13041,7 @@
       <c r="D772" s="16"/>
       <c r="E772" s="16"/>
       <c r="F772" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G772" s="14" t="s">
         <v>151</v>
@@ -13058,7 +13070,7 @@
         <v>154</v>
       </c>
       <c r="G774" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="775">
@@ -13068,10 +13080,10 @@
       <c r="D775" s="16"/>
       <c r="E775" s="16"/>
       <c r="F775" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G775" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="776">
@@ -13081,10 +13093,10 @@
       <c r="D776" s="16"/>
       <c r="E776" s="16"/>
       <c r="F776" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G776" s="14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="777">
@@ -13094,10 +13106,10 @@
       <c r="D777" s="18"/>
       <c r="E777" s="18"/>
       <c r="F777" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G777" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="778">
@@ -13105,7 +13117,7 @@
         <v>87.0</v>
       </c>
       <c r="B778" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C778" s="10"/>
       <c r="D778" s="11" t="s">
@@ -13232,7 +13244,7 @@
       <c r="D787" s="16"/>
       <c r="E787" s="16"/>
       <c r="F787" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G787" s="14" t="s">
         <v>151</v>
@@ -13261,7 +13273,7 @@
         <v>154</v>
       </c>
       <c r="G789" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="790">
@@ -13271,10 +13283,10 @@
       <c r="D790" s="16"/>
       <c r="E790" s="16"/>
       <c r="F790" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G790" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="791">
@@ -13284,10 +13296,10 @@
       <c r="D791" s="16"/>
       <c r="E791" s="16"/>
       <c r="F791" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G791" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="792">
@@ -13297,10 +13309,10 @@
       <c r="D792" s="18"/>
       <c r="E792" s="18"/>
       <c r="F792" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G792" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="793">
@@ -13308,7 +13320,7 @@
         <v>88.0</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C793" s="10"/>
       <c r="D793" s="11" t="s">
@@ -13435,7 +13447,7 @@
       <c r="D802" s="16"/>
       <c r="E802" s="16"/>
       <c r="F802" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G802" s="14" t="s">
         <v>151</v>
@@ -13464,7 +13476,7 @@
         <v>154</v>
       </c>
       <c r="G804" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="805">
@@ -13474,10 +13486,10 @@
       <c r="D805" s="16"/>
       <c r="E805" s="16"/>
       <c r="F805" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G805" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="806">
@@ -13487,10 +13499,10 @@
       <c r="D806" s="16"/>
       <c r="E806" s="16"/>
       <c r="F806" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G806" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="807">
@@ -13500,10 +13512,10 @@
       <c r="D807" s="18"/>
       <c r="E807" s="18"/>
       <c r="F807" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G807" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="808">
@@ -13511,7 +13523,7 @@
         <v>89.0</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C808" s="10"/>
       <c r="D808" s="11" t="s">
@@ -13638,7 +13650,7 @@
       <c r="D817" s="16"/>
       <c r="E817" s="16"/>
       <c r="F817" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G817" s="14" t="s">
         <v>151</v>
@@ -13667,7 +13679,7 @@
         <v>154</v>
       </c>
       <c r="G819" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="820">
@@ -13677,10 +13689,10 @@
       <c r="D820" s="16"/>
       <c r="E820" s="16"/>
       <c r="F820" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G820" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="821">
@@ -13690,10 +13702,10 @@
       <c r="D821" s="16"/>
       <c r="E821" s="16"/>
       <c r="F821" s="14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G821" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="822">
@@ -13703,10 +13715,10 @@
       <c r="D822" s="18"/>
       <c r="E822" s="18"/>
       <c r="F822" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G822" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="823">
@@ -13714,7 +13726,7 @@
         <v>90.0</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C823" s="10"/>
       <c r="D823" s="11" t="s">
@@ -13841,7 +13853,7 @@
       <c r="D832" s="16"/>
       <c r="E832" s="16"/>
       <c r="F832" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G832" s="14" t="s">
         <v>151</v>
@@ -13870,7 +13882,7 @@
         <v>154</v>
       </c>
       <c r="G834" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="835">
@@ -13880,10 +13892,10 @@
       <c r="D835" s="16"/>
       <c r="E835" s="16"/>
       <c r="F835" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G835" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="836">
@@ -13893,10 +13905,10 @@
       <c r="D836" s="16"/>
       <c r="E836" s="16"/>
       <c r="F836" s="14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G836" s="14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="837">
@@ -13906,10 +13918,10 @@
       <c r="D837" s="18"/>
       <c r="E837" s="18"/>
       <c r="F837" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G837" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="838">
@@ -13917,7 +13929,7 @@
         <v>91.0</v>
       </c>
       <c r="B838" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C838" s="10"/>
       <c r="D838" s="11" t="s">
@@ -14044,7 +14056,7 @@
       <c r="D847" s="16"/>
       <c r="E847" s="16"/>
       <c r="F847" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G847" s="14" t="s">
         <v>151</v>
@@ -14073,7 +14085,7 @@
         <v>154</v>
       </c>
       <c r="G849" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="850">
@@ -14083,10 +14095,10 @@
       <c r="D850" s="16"/>
       <c r="E850" s="16"/>
       <c r="F850" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G850" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="851">
@@ -14096,10 +14108,10 @@
       <c r="D851" s="16"/>
       <c r="E851" s="16"/>
       <c r="F851" s="14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G851" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="852">
@@ -14109,10 +14121,10 @@
       <c r="D852" s="18"/>
       <c r="E852" s="18"/>
       <c r="F852" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G852" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="853">
@@ -14120,7 +14132,7 @@
         <v>92.0</v>
       </c>
       <c r="B853" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C853" s="10"/>
       <c r="D853" s="11" t="s">
@@ -14195,10 +14207,10 @@
       <c r="D858" s="18"/>
       <c r="E858" s="18"/>
       <c r="F858" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G858" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="859">
@@ -14206,7 +14218,7 @@
         <v>93.0</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C859" s="10"/>
       <c r="D859" s="11" t="s">
@@ -14281,10 +14293,10 @@
       <c r="D864" s="16"/>
       <c r="E864" s="16"/>
       <c r="F864" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G864" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="865">
@@ -14294,10 +14306,10 @@
       <c r="D865" s="18"/>
       <c r="E865" s="18"/>
       <c r="F865" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G865" s="14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="866">
@@ -14305,7 +14317,7 @@
         <v>94.0</v>
       </c>
       <c r="B866" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C866" s="10"/>
       <c r="D866" s="11" t="s">
@@ -14331,7 +14343,7 @@
         <v>33</v>
       </c>
       <c r="G867" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="868">
@@ -14339,7 +14351,7 @@
         <v>95.0</v>
       </c>
       <c r="B868" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C868" s="10"/>
       <c r="D868" s="23" t="s">
@@ -14365,7 +14377,7 @@
         <v>33</v>
       </c>
       <c r="G869" s="14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="870">
@@ -14373,7 +14385,7 @@
         <v>96.0</v>
       </c>
       <c r="B870" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C870" s="10"/>
       <c r="D870" s="23" t="s">
@@ -14399,7 +14411,7 @@
         <v>33</v>
       </c>
       <c r="G871" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="872">
@@ -14407,7 +14419,7 @@
         <v>97.0</v>
       </c>
       <c r="B872" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C872" s="10"/>
       <c r="D872" s="23" t="s">
@@ -14456,10 +14468,10 @@
       <c r="D875" s="16"/>
       <c r="E875" s="16"/>
       <c r="F875" s="14" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G875" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="876">
@@ -14469,10 +14481,10 @@
       <c r="D876" s="16"/>
       <c r="E876" s="16"/>
       <c r="F876" s="14" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G876" s="14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="877">
@@ -14482,10 +14494,10 @@
       <c r="D877" s="16"/>
       <c r="E877" s="16"/>
       <c r="F877" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G877" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="878">
@@ -14495,10 +14507,10 @@
       <c r="D878" s="16"/>
       <c r="E878" s="16"/>
       <c r="F878" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G878" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="879">
@@ -14508,10 +14520,10 @@
       <c r="D879" s="18"/>
       <c r="E879" s="18"/>
       <c r="F879" s="25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G879" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="880">
@@ -14519,14 +14531,14 @@
         <v>98.0</v>
       </c>
       <c r="B880" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C880" s="10"/>
       <c r="D880" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E880" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F880" s="22" t="s">
         <v>37</v>
@@ -14594,10 +14606,10 @@
       <c r="D885" s="16"/>
       <c r="E885" s="16"/>
       <c r="F885" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G885" s="26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="886">
@@ -14607,10 +14619,10 @@
       <c r="D886" s="18"/>
       <c r="E886" s="18"/>
       <c r="F886" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G886" s="14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="887">
@@ -14618,14 +14630,14 @@
         <v>99.0</v>
       </c>
       <c r="B887" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C887" s="10"/>
       <c r="D887" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E887" s="12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F887" s="22" t="s">
         <v>37</v>
@@ -14657,7 +14669,7 @@
         <v>41</v>
       </c>
       <c r="G889" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="890">
@@ -14667,10 +14679,10 @@
       <c r="D890" s="16"/>
       <c r="E890" s="16"/>
       <c r="F890" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G890" s="14" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="891">
@@ -14680,10 +14692,10 @@
       <c r="D891" s="18"/>
       <c r="E891" s="18"/>
       <c r="F891" s="14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G891" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="892">
@@ -14691,7 +14703,7 @@
         <v>100.0</v>
       </c>
       <c r="B892" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C892" s="10"/>
       <c r="D892" s="23" t="s">
@@ -14701,10 +14713,10 @@
         <v>36</v>
       </c>
       <c r="F892" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G892" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="893">
@@ -14714,10 +14726,10 @@
       <c r="D893" s="16"/>
       <c r="E893" s="16"/>
       <c r="F893" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G893" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="894">
@@ -14727,10 +14739,10 @@
       <c r="D894" s="16"/>
       <c r="E894" s="16"/>
       <c r="F894" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G894" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="895">
@@ -14740,10 +14752,10 @@
       <c r="D895" s="16"/>
       <c r="E895" s="16"/>
       <c r="F895" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G895" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="896">
@@ -14753,10 +14765,10 @@
       <c r="D896" s="18"/>
       <c r="E896" s="18"/>
       <c r="F896" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G896" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="897">
@@ -14764,7 +14776,7 @@
         <v>101.0</v>
       </c>
       <c r="B897" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C897" s="10"/>
       <c r="D897" s="23" t="s">
@@ -14774,10 +14786,10 @@
         <v>36</v>
       </c>
       <c r="F897" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G897" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="898">
@@ -14787,10 +14799,10 @@
       <c r="D898" s="16"/>
       <c r="E898" s="16"/>
       <c r="F898" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G898" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="899">
@@ -14800,10 +14812,10 @@
       <c r="D899" s="16"/>
       <c r="E899" s="16"/>
       <c r="F899" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G899" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="900" ht="49.5" customHeight="1">
@@ -14813,10 +14825,10 @@
       <c r="D900" s="18"/>
       <c r="E900" s="18"/>
       <c r="F900" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G900" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="901">
@@ -14824,7 +14836,7 @@
         <v>102.0</v>
       </c>
       <c r="B901" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C901" s="10"/>
       <c r="D901" s="23" t="s">
@@ -14834,10 +14846,10 @@
         <v>36</v>
       </c>
       <c r="F901" s="22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G901" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="902">
@@ -14847,10 +14859,10 @@
       <c r="D902" s="16"/>
       <c r="E902" s="16"/>
       <c r="F902" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G902" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="903">
@@ -14860,10 +14872,10 @@
       <c r="D903" s="16"/>
       <c r="E903" s="16"/>
       <c r="F903" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G903" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="904">
@@ -14873,10 +14885,10 @@
       <c r="D904" s="16"/>
       <c r="E904" s="16"/>
       <c r="F904" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G904" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="905">
@@ -14886,10 +14898,10 @@
       <c r="D905" s="16"/>
       <c r="E905" s="16"/>
       <c r="F905" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G905" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="906">
@@ -14899,10 +14911,10 @@
       <c r="D906" s="16"/>
       <c r="E906" s="16"/>
       <c r="F906" s="25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G906" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="907">
@@ -14912,10 +14924,10 @@
       <c r="D907" s="18"/>
       <c r="E907" s="18"/>
       <c r="F907" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G907" s="14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="908">
@@ -14923,7 +14935,7 @@
         <v>103.0</v>
       </c>
       <c r="B908" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C908" s="10"/>
       <c r="D908" s="23" t="s">
@@ -14933,10 +14945,10 @@
         <v>36</v>
       </c>
       <c r="F908" s="22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G908" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="909">
@@ -14946,10 +14958,10 @@
       <c r="D909" s="16"/>
       <c r="E909" s="16"/>
       <c r="F909" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G909" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="910">
@@ -14959,10 +14971,10 @@
       <c r="D910" s="16"/>
       <c r="E910" s="16"/>
       <c r="F910" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G910" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="911">
@@ -14972,10 +14984,10 @@
       <c r="D911" s="16"/>
       <c r="E911" s="16"/>
       <c r="F911" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G911" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="912">
@@ -14985,10 +14997,10 @@
       <c r="D912" s="18"/>
       <c r="E912" s="18"/>
       <c r="F912" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G912" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="913">
@@ -14996,7 +15008,7 @@
         <v>104.0</v>
       </c>
       <c r="B913" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C913" s="10"/>
       <c r="D913" s="23" t="s">
@@ -15006,10 +15018,10 @@
         <v>36</v>
       </c>
       <c r="F913" s="22" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G913" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="914">
@@ -15019,10 +15031,10 @@
       <c r="D914" s="16"/>
       <c r="E914" s="16"/>
       <c r="F914" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G914" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="915">
@@ -15032,10 +15044,10 @@
       <c r="D915" s="16"/>
       <c r="E915" s="16"/>
       <c r="F915" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G915" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="916">
@@ -15045,10 +15057,10 @@
       <c r="D916" s="16"/>
       <c r="E916" s="16"/>
       <c r="F916" s="14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G916" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="917">
@@ -15058,10 +15070,10 @@
       <c r="D917" s="16"/>
       <c r="E917" s="16"/>
       <c r="F917" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G917" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="918">
@@ -15071,10 +15083,10 @@
       <c r="D918" s="18"/>
       <c r="E918" s="18"/>
       <c r="F918" s="25" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G918" s="26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="919">
@@ -15082,7 +15094,7 @@
         <v>105.0</v>
       </c>
       <c r="B919" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C919" s="10"/>
       <c r="D919" s="23" t="s">
@@ -15092,10 +15104,10 @@
         <v>36</v>
       </c>
       <c r="F919" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G919" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="920">
@@ -15105,10 +15117,10 @@
       <c r="D920" s="16"/>
       <c r="E920" s="16"/>
       <c r="F920" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G920" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="921">
@@ -15118,10 +15130,10 @@
       <c r="D921" s="16"/>
       <c r="E921" s="16"/>
       <c r="F921" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G921" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="922">
@@ -15131,10 +15143,10 @@
       <c r="D922" s="16"/>
       <c r="E922" s="16"/>
       <c r="F922" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G922" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="923">
@@ -15144,10 +15156,10 @@
       <c r="D923" s="16"/>
       <c r="E923" s="16"/>
       <c r="F923" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G923" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="924">
@@ -15157,10 +15169,10 @@
       <c r="D924" s="18"/>
       <c r="E924" s="18"/>
       <c r="F924" s="25" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G924" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="925">
@@ -15168,7 +15180,7 @@
         <v>106.0</v>
       </c>
       <c r="B925" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C925" s="10"/>
       <c r="D925" s="23" t="s">
@@ -15204,10 +15216,10 @@
       <c r="D927" s="18"/>
       <c r="E927" s="18"/>
       <c r="F927" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G927" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="928">
@@ -15215,7 +15227,7 @@
         <v>107.0</v>
       </c>
       <c r="B928" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C928" s="10"/>
       <c r="D928" s="23" t="s">
@@ -15277,10 +15289,10 @@
       <c r="D932" s="18"/>
       <c r="E932" s="18"/>
       <c r="F932" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G932" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="933">
@@ -15288,7 +15300,7 @@
         <v>108.0</v>
       </c>
       <c r="B933" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C933" s="10"/>
       <c r="D933" s="23" t="s">
@@ -15496,7 +15508,7 @@
         <v>162</v>
       </c>
       <c r="G948" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="949">
@@ -15504,7 +15516,7 @@
         <v>109.0</v>
       </c>
       <c r="B949" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C949" s="10"/>
       <c r="D949" s="23" t="s">
@@ -15696,10 +15708,10 @@
       <c r="D963" s="16"/>
       <c r="E963" s="16"/>
       <c r="F963" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G963" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="964">
@@ -15709,10 +15721,10 @@
       <c r="D964" s="16"/>
       <c r="E964" s="16"/>
       <c r="F964" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G964" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="965">
@@ -15725,7 +15737,7 @@
         <v>232</v>
       </c>
       <c r="G965" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="966">
@@ -15733,7 +15745,7 @@
         <v>110.0</v>
       </c>
       <c r="B966" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C966" s="10"/>
       <c r="D966" s="23" t="s">
@@ -15928,7 +15940,7 @@
         <v>246</v>
       </c>
       <c r="G980" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="981">
@@ -15936,7 +15948,7 @@
         <v>111.0</v>
       </c>
       <c r="B981" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C981" s="10"/>
       <c r="D981" s="23" t="s">
@@ -16115,10 +16127,10 @@
       <c r="D994" s="16"/>
       <c r="E994" s="16"/>
       <c r="F994" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G994" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="995">
@@ -16128,10 +16140,10 @@
       <c r="D995" s="16"/>
       <c r="E995" s="16"/>
       <c r="F995" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G995" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="996">
@@ -16144,7 +16156,7 @@
         <v>162</v>
       </c>
       <c r="G996" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="997">
@@ -16152,7 +16164,7 @@
         <v>112.0</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C997" s="10"/>
       <c r="D997" s="23" t="s">
@@ -16347,7 +16359,7 @@
         <v>296</v>
       </c>
       <c r="G1011" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="1012">
@@ -16360,7 +16372,7 @@
         <v>291</v>
       </c>
       <c r="G1012" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="1013">
@@ -16368,7 +16380,7 @@
         <v>113.0</v>
       </c>
       <c r="B1013" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="23" t="s">
@@ -16521,10 +16533,10 @@
       <c r="D1024" s="16"/>
       <c r="E1024" s="16"/>
       <c r="F1024" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G1024" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1025">
@@ -16560,10 +16572,10 @@
       <c r="D1027" s="16"/>
       <c r="E1027" s="16"/>
       <c r="F1027" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G1027" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1028">
@@ -16576,7 +16588,7 @@
         <v>291</v>
       </c>
       <c r="G1028" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="1029">
@@ -16584,7 +16596,7 @@
         <v>114.0</v>
       </c>
       <c r="B1029" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C1029" s="10"/>
       <c r="D1029" s="23" t="s">
@@ -16672,10 +16684,10 @@
       <c r="D1035" s="16"/>
       <c r="E1035" s="16"/>
       <c r="F1035" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G1035" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1036">
@@ -16685,10 +16697,10 @@
       <c r="D1036" s="16"/>
       <c r="E1036" s="16"/>
       <c r="F1036" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G1036" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1037">
@@ -16698,10 +16710,10 @@
       <c r="D1037" s="16"/>
       <c r="E1037" s="16"/>
       <c r="F1037" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G1037" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1038">
@@ -16711,10 +16723,10 @@
       <c r="D1038" s="16"/>
       <c r="E1038" s="16"/>
       <c r="F1038" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G1038" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1039">
@@ -16724,10 +16736,10 @@
       <c r="D1039" s="16"/>
       <c r="E1039" s="16"/>
       <c r="F1039" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G1039" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1040">
@@ -16737,10 +16749,10 @@
       <c r="D1040" s="16"/>
       <c r="E1040" s="16"/>
       <c r="F1040" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G1040" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1041">
@@ -16750,10 +16762,10 @@
       <c r="D1041" s="16"/>
       <c r="E1041" s="16"/>
       <c r="F1041" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G1041" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1042">
@@ -16763,10 +16775,10 @@
       <c r="D1042" s="18"/>
       <c r="E1042" s="18"/>
       <c r="F1042" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G1042" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1043">
@@ -16774,7 +16786,7 @@
         <v>115.0</v>
       </c>
       <c r="B1043" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C1043" s="10"/>
       <c r="D1043" s="23" t="s">
@@ -16862,10 +16874,10 @@
       <c r="D1049" s="16"/>
       <c r="E1049" s="16"/>
       <c r="F1049" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G1049" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1050">
@@ -16875,10 +16887,10 @@
       <c r="D1050" s="16"/>
       <c r="E1050" s="16"/>
       <c r="F1050" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G1050" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1051">
@@ -16888,10 +16900,10 @@
       <c r="D1051" s="16"/>
       <c r="E1051" s="16"/>
       <c r="F1051" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G1051" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1052">
@@ -16901,10 +16913,10 @@
       <c r="D1052" s="16"/>
       <c r="E1052" s="16"/>
       <c r="F1052" s="14" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G1052" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1053">
@@ -16914,10 +16926,10 @@
       <c r="D1053" s="16"/>
       <c r="E1053" s="16"/>
       <c r="F1053" s="14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G1053" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1054">
@@ -16927,10 +16939,10 @@
       <c r="D1054" s="16"/>
       <c r="E1054" s="16"/>
       <c r="F1054" s="14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G1054" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1055">
@@ -16940,10 +16952,10 @@
       <c r="D1055" s="16"/>
       <c r="E1055" s="16"/>
       <c r="F1055" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G1055" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1056">
@@ -16953,10 +16965,10 @@
       <c r="D1056" s="16"/>
       <c r="E1056" s="16"/>
       <c r="F1056" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G1056" s="14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1057">
@@ -16966,10 +16978,10 @@
       <c r="D1057" s="16"/>
       <c r="E1057" s="16"/>
       <c r="F1057" s="25" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G1057" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1058">
@@ -16986,7 +16998,7 @@
         <v>116.0</v>
       </c>
       <c r="B1059" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C1059" s="10"/>
       <c r="D1059" s="23" t="s">
@@ -17074,10 +17086,10 @@
       <c r="D1065" s="16"/>
       <c r="E1065" s="16"/>
       <c r="F1065" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G1065" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1066">
@@ -17087,10 +17099,10 @@
       <c r="D1066" s="16"/>
       <c r="E1066" s="16"/>
       <c r="F1066" s="14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G1066" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1067">
@@ -17100,10 +17112,10 @@
       <c r="D1067" s="16"/>
       <c r="E1067" s="16"/>
       <c r="F1067" s="25" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G1067" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1068">
@@ -17113,10 +17125,10 @@
       <c r="D1068" s="16"/>
       <c r="E1068" s="16"/>
       <c r="F1068" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G1068" s="26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1069">
@@ -17126,10 +17138,10 @@
       <c r="D1069" s="18"/>
       <c r="E1069" s="18"/>
       <c r="F1069" s="29" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G1069" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1070">
@@ -17137,7 +17149,7 @@
         <v>117.0</v>
       </c>
       <c r="B1070" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="23" t="s">
@@ -17251,10 +17263,10 @@
       <c r="D1078" s="16"/>
       <c r="E1078" s="16"/>
       <c r="F1078" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G1078" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1079">
@@ -17264,7 +17276,7 @@
       <c r="D1079" s="16"/>
       <c r="E1079" s="16"/>
       <c r="F1079" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G1079" s="14" t="s">
         <v>151</v>
@@ -17293,7 +17305,7 @@
         <v>154</v>
       </c>
       <c r="G1081" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1082">
@@ -17303,10 +17315,10 @@
       <c r="D1082" s="16"/>
       <c r="E1082" s="16"/>
       <c r="F1082" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G1082" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1083">
@@ -17316,10 +17328,10 @@
       <c r="D1083" s="18"/>
       <c r="E1083" s="18"/>
       <c r="F1083" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G1083" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1084">
@@ -17327,7 +17339,7 @@
         <v>118.0</v>
       </c>
       <c r="B1084" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C1084" s="10"/>
       <c r="D1084" s="23" t="s">
@@ -17441,10 +17453,10 @@
       <c r="D1092" s="16"/>
       <c r="E1092" s="16"/>
       <c r="F1092" s="14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G1092" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1093">
@@ -17454,7 +17466,7 @@
       <c r="D1093" s="16"/>
       <c r="E1093" s="16"/>
       <c r="F1093" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G1093" s="14" t="s">
         <v>151</v>
@@ -17483,7 +17495,7 @@
         <v>154</v>
       </c>
       <c r="G1095" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1096">
@@ -17493,10 +17505,10 @@
       <c r="D1096" s="16"/>
       <c r="E1096" s="16"/>
       <c r="F1096" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G1096" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1097">
@@ -17506,14 +17518,113 @@
       <c r="D1097" s="18"/>
       <c r="E1097" s="18"/>
       <c r="F1097" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G1097" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="19">
+        <v>119.0</v>
+      </c>
+      <c r="B1098" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1098" s="10"/>
+      <c r="D1098" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1098" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1098" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1098" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="15"/>
+      <c r="B1099" s="16"/>
+      <c r="C1099" s="16"/>
+      <c r="D1099" s="16"/>
+      <c r="E1099" s="16"/>
+      <c r="F1099" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1099" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="15"/>
+      <c r="B1100" s="16"/>
+      <c r="C1100" s="16"/>
+      <c r="D1100" s="16"/>
+      <c r="E1100" s="16"/>
+      <c r="F1100" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1100" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="15"/>
+      <c r="B1101" s="16"/>
+      <c r="C1101" s="16"/>
+      <c r="D1101" s="16"/>
+      <c r="E1101" s="16"/>
+      <c r="F1101" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1101" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="15"/>
+      <c r="B1102" s="16"/>
+      <c r="C1102" s="16"/>
+      <c r="D1102" s="16"/>
+      <c r="E1102" s="16"/>
+      <c r="F1102" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1102" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="15"/>
+      <c r="B1103" s="16"/>
+      <c r="C1103" s="16"/>
+      <c r="D1103" s="16"/>
+      <c r="E1103" s="16"/>
+      <c r="F1103" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1103" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="17"/>
+      <c r="B1104" s="18"/>
+      <c r="C1104" s="18"/>
+      <c r="D1104" s="18"/>
+      <c r="E1104" s="18"/>
+      <c r="F1104" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1104" s="14" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="590">
+  <mergeCells count="595">
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
@@ -17821,6 +17932,7 @@
     <mergeCell ref="E1059:E1069"/>
     <mergeCell ref="E1070:E1083"/>
     <mergeCell ref="E1084:E1097"/>
+    <mergeCell ref="E1098:E1104"/>
     <mergeCell ref="D981:D996"/>
     <mergeCell ref="E981:E996"/>
     <mergeCell ref="D997:D1012"/>
@@ -17833,6 +17945,7 @@
     <mergeCell ref="D1059:D1069"/>
     <mergeCell ref="D1070:D1083"/>
     <mergeCell ref="D1084:D1097"/>
+    <mergeCell ref="D1098:D1104"/>
     <mergeCell ref="C720:C733"/>
     <mergeCell ref="D720:D733"/>
     <mergeCell ref="A708:A719"/>
@@ -17900,11 +18013,13 @@
     <mergeCell ref="A1059:A1069"/>
     <mergeCell ref="A1070:A1083"/>
     <mergeCell ref="A1084:A1097"/>
+    <mergeCell ref="A1098:A1104"/>
     <mergeCell ref="B1029:B1042"/>
     <mergeCell ref="B1043:B1058"/>
     <mergeCell ref="B1059:B1069"/>
     <mergeCell ref="B1070:B1083"/>
     <mergeCell ref="B1084:B1097"/>
+    <mergeCell ref="B1098:B1104"/>
     <mergeCell ref="B808:B822"/>
     <mergeCell ref="C808:C822"/>
     <mergeCell ref="A823:A837"/>
@@ -17960,6 +18075,7 @@
     <mergeCell ref="C1059:C1069"/>
     <mergeCell ref="C1070:C1083"/>
     <mergeCell ref="C1084:C1097"/>
+    <mergeCell ref="C1098:C1104"/>
     <mergeCell ref="A206:A221"/>
     <mergeCell ref="A222:A237"/>
     <mergeCell ref="B222:B237"/>
